--- a/DevFlow - planing.xlsx
+++ b/DevFlow - planing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ABB2DFB-ECB0-482C-9797-75954D18C2B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDCBDD-16AE-48C2-A80E-F357F062E420}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{6CE9490E-E497-4E8B-98C9-8A4E44BD0681}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>TAREFA</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>1h40minutos</t>
+  </si>
+  <si>
+    <t>1h00minutos</t>
   </si>
 </sst>
 </file>
@@ -189,9 +192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -201,14 +201,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -219,6 +219,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -240,13 +243,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03379567-F12F-434A-940A-2CE0143C54C4}" name="Tabela1" displayName="Tabela1" ref="B2:E22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03379567-F12F-434A-940A-2CE0143C54C4}" name="Tabela1" displayName="Tabela1" ref="B2:E22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B2:E22" xr:uid="{412C5ECC-8236-4C67-A209-CF8DB2F4D82F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2F121EF0-E0D9-441A-A7A0-F2F2D278A228}" name="RESPONSAVEL " dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BFC409C0-4EA0-480F-8C62-E47795424E25}" name="TAREFA" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C9AB3DB0-D1F6-455A-BC0B-A31816E3DE94}" name="IMPLEMENTAÇÃO PREVISTA" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6C453B9C-C643-427D-B12D-25912A7BCAA2}" name="IMPLEMENTAÇÃO REAL" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2F121EF0-E0D9-441A-A7A0-F2F2D278A228}" name="RESPONSAVEL " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BFC409C0-4EA0-480F-8C62-E47795424E25}" name="TAREFA" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C9AB3DB0-D1F6-455A-BC0B-A31816E3DE94}" name="IMPLEMENTAÇÃO PREVISTA" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6C453B9C-C643-427D-B12D-25912A7BCAA2}" name="IMPLEMENTAÇÃO REAL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,31 +554,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049837F5-4C84-43A6-9C4A-8A4328A55201}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.90625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -589,205 +592,207 @@
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
